--- a/data/trans_orig/P36BPD03_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD03_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>36342</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24438</v>
+        <v>25162</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51443</v>
+        <v>51112</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07297988747450132</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04907517367041268</v>
+        <v>0.05052933533381551</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1033043726615041</v>
+        <v>0.1026409605351278</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -762,19 +762,19 @@
         <v>34737</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25509</v>
+        <v>24978</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>48292</v>
+        <v>48695</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05570570601699289</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04090677744281734</v>
+        <v>0.04005625111969614</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07744298044485762</v>
+        <v>0.07808932403993767</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -783,19 +783,19 @@
         <v>71079</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55798</v>
+        <v>55404</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>89407</v>
+        <v>91859</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06337547492313515</v>
+        <v>0.06337547492313514</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04975075635959086</v>
+        <v>0.04939920796211061</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07971753698731501</v>
+        <v>0.08190361794193184</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>121278</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>101123</v>
+        <v>99899</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>143242</v>
+        <v>140681</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2435436870088886</v>
+        <v>0.2435436870088885</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2030701484440333</v>
+        <v>0.2006112700592643</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2876506154472618</v>
+        <v>0.2825089146014414</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>178</v>
@@ -833,19 +833,19 @@
         <v>134897</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>115576</v>
+        <v>116294</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>154595</v>
+        <v>155682</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.216326211441803</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1853431321159452</v>
+        <v>0.1864941006289594</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2479153854524145</v>
+        <v>0.2496579155473066</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>293</v>
@@ -854,19 +854,19 @@
         <v>256174</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>229533</v>
+        <v>228683</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>285642</v>
+        <v>287571</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2284108215474462</v>
+        <v>0.2284108215474461</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2046571630608243</v>
+        <v>0.2038986422428278</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2546850608501183</v>
+        <v>0.2564049658985701</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>253972</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>228091</v>
+        <v>227653</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>277403</v>
+        <v>279300</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5100139119970843</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4580408820458742</v>
+        <v>0.457160358515205</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5570672423180286</v>
+        <v>0.5608756602015947</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>478</v>
@@ -904,19 +904,19 @@
         <v>337939</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>316175</v>
+        <v>316769</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>359772</v>
+        <v>361664</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5419331811170828</v>
+        <v>0.5419331811170827</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5070322405922996</v>
+        <v>0.5079848974711594</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5769456701227161</v>
+        <v>0.5799801828211353</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>713</v>
@@ -925,19 +925,19 @@
         <v>591911</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>560805</v>
+        <v>559225</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>623897</v>
+        <v>625588</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5277609658717151</v>
+        <v>0.5277609658717148</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5000259581553573</v>
+        <v>0.498617476995582</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5562801836276648</v>
+        <v>0.5577883559500652</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>86379</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68192</v>
+        <v>68921</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>109369</v>
+        <v>109930</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1734625135195257</v>
+        <v>0.1734625135195258</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.136939612126973</v>
+        <v>0.138403940801169</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2196293911671597</v>
+        <v>0.2207559305638916</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>162</v>
@@ -975,19 +975,19 @@
         <v>116008</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>100621</v>
+        <v>99750</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>135022</v>
+        <v>134489</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1860349014241213</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1613609256010395</v>
+        <v>0.1599629730916652</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2165275643380492</v>
+        <v>0.2156718553725236</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>234</v>
@@ -996,19 +996,19 @@
         <v>202387</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>178883</v>
+        <v>178668</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>228639</v>
+        <v>229927</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1804527376577037</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1594962068389373</v>
+        <v>0.1593043948127247</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2038600834061093</v>
+        <v>0.2050076241928896</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>34818</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>24225</v>
+        <v>23798</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>50013</v>
+        <v>48882</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.03630136039129202</v>
+        <v>0.03630136039129201</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02525766514433585</v>
+        <v>0.02481205645774635</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05214356201555474</v>
+        <v>0.05096481356277865</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>54</v>
@@ -1121,19 +1121,19 @@
         <v>38937</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>29058</v>
+        <v>29136</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>50945</v>
+        <v>50366</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.0349282341530017</v>
+        <v>0.03492823415300169</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02606695100191068</v>
+        <v>0.02613693942840248</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04570046381996042</v>
+        <v>0.04518069110106892</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>87</v>
@@ -1142,19 +1142,19 @@
         <v>73754</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>57779</v>
+        <v>59217</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>92326</v>
+        <v>91345</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03556327640002786</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02786031847671057</v>
+        <v>0.0285534302397364</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04451817821880457</v>
+        <v>0.04404504392534536</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>217855</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>189463</v>
+        <v>189327</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>246841</v>
+        <v>247358</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2271377890660304</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.197535527976853</v>
+        <v>0.1973935413482451</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2573584911507856</v>
+        <v>0.2578976720313939</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>317</v>
@@ -1192,19 +1192,19 @@
         <v>219456</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>194773</v>
+        <v>197366</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>244130</v>
+        <v>243240</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1968633175196858</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.174722164166484</v>
+        <v>0.1770475897382616</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2189978440194025</v>
+        <v>0.218199123887577</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>524</v>
@@ -1213,19 +1213,19 @@
         <v>437311</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>398285</v>
+        <v>400644</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>474089</v>
+        <v>474378</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2108646291997087</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.192046982297263</v>
+        <v>0.1931842681678972</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.228598488178286</v>
+        <v>0.2287377835720935</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>543241</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>510323</v>
+        <v>508618</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>577242</v>
+        <v>579394</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5663870936849928</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5320667082004614</v>
+        <v>0.5302894340200918</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6018374954840029</v>
+        <v>0.6040806457128939</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>962</v>
@@ -1263,19 +1263,19 @@
         <v>667536</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>637089</v>
+        <v>639287</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>699172</v>
+        <v>694212</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5988152569208673</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5715027064295943</v>
+        <v>0.5734749219721587</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6271946790744469</v>
+        <v>0.6227448800601951</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1486</v>
@@ -1284,19 +1284,19 @@
         <v>1210776</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1166025</v>
+        <v>1164916</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1253860</v>
+        <v>1254171</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5838179077522421</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5622395980199673</v>
+        <v>0.5617044605776575</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6045921381919845</v>
+        <v>0.6047420335744526</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>163219</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>138854</v>
+        <v>139615</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>189084</v>
+        <v>190511</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1701737568576848</v>
+        <v>0.1701737568576847</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1447707446730861</v>
+        <v>0.145563572400361</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1971400312839991</v>
+        <v>0.1986286720987964</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>272</v>
@@ -1334,19 +1334,19 @@
         <v>188833</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>168562</v>
+        <v>167523</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>212042</v>
+        <v>210068</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1693931914064453</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1512091172294932</v>
+        <v>0.1502774621063745</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1902129678413472</v>
+        <v>0.1884417454051154</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>417</v>
@@ -1355,19 +1355,19 @@
         <v>352052</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>320183</v>
+        <v>320892</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>387452</v>
+        <v>387934</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1697541866480214</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1543873982200382</v>
+        <v>0.1547291237562702</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1868235568722636</v>
+        <v>0.1870560686161676</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>72618</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>55780</v>
+        <v>54811</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>93824</v>
+        <v>95607</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06944049983053703</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05333895518967215</v>
+        <v>0.05241255092862392</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0897184901339986</v>
+        <v>0.09142333416427786</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>51</v>
@@ -1480,19 +1480,19 @@
         <v>40078</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29277</v>
+        <v>29137</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>53620</v>
+        <v>53009</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0383305829392829</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02800058262915688</v>
+        <v>0.02786653906040882</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05128269462979447</v>
+        <v>0.05069862494141764</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>112</v>
@@ -1501,19 +1501,19 @@
         <v>112696</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>92831</v>
+        <v>94593</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>140177</v>
+        <v>139471</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05388689316654224</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04438817719067843</v>
+        <v>0.04523078567864518</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06702736061044604</v>
+        <v>0.06669002651954871</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>281743</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>253279</v>
+        <v>251137</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>315262</v>
+        <v>315093</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.26941500855268</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2421960966493118</v>
+        <v>0.2401485105543144</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3014679249823218</v>
+        <v>0.3013059992165163</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>341</v>
@@ -1551,19 +1551,19 @@
         <v>228635</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>206765</v>
+        <v>207051</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>251378</v>
+        <v>253113</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2186689088321506</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1977519260956157</v>
+        <v>0.1980251662114159</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2404199601526237</v>
+        <v>0.2420801729374377</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>613</v>
@@ -1572,19 +1572,19 @@
         <v>510378</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>473159</v>
+        <v>471991</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>550494</v>
+        <v>546771</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.244044163701376</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.226247448220662</v>
+        <v>0.2256886763612787</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2632262809247136</v>
+        <v>0.2614458262689595</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>515717</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>479513</v>
+        <v>477880</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>545016</v>
+        <v>550701</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4931512856268789</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4585311076909461</v>
+        <v>0.4569694916518631</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5211687550745011</v>
+        <v>0.5266049668030787</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>830</v>
@@ -1622,19 +1622,19 @@
         <v>569405</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>541578</v>
+        <v>537006</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>596226</v>
+        <v>597459</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5445845795616298</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5179704012291004</v>
+        <v>0.5135978043083512</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5702361724141859</v>
+        <v>0.5714154343532802</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1369</v>
@@ -1643,19 +1643,19 @@
         <v>1085122</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1044752</v>
+        <v>1041207</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1135582</v>
+        <v>1128600</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5188656977254738</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4995621092543215</v>
+        <v>0.4978673015935707</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5429936038970568</v>
+        <v>0.5396553950749202</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>175680</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>149112</v>
+        <v>147841</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>201880</v>
+        <v>203919</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.167993205989904</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1425878276616917</v>
+        <v>0.1413717183238527</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1930470520047487</v>
+        <v>0.1949959978841038</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>291</v>
@@ -1693,19 +1693,19 @@
         <v>207459</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>186791</v>
+        <v>184480</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>232225</v>
+        <v>232935</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1984159286669367</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1786484011847965</v>
+        <v>0.1764384322906965</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2221020790457195</v>
+        <v>0.2227814507071644</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>447</v>
@@ -1714,19 +1714,19 @@
         <v>383139</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>347464</v>
+        <v>349079</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>418107</v>
+        <v>421271</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.183203245406608</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1661447200318834</v>
+        <v>0.1669168128130229</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1999236824817992</v>
+        <v>0.2014365743970131</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>52190</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37791</v>
+        <v>36937</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>73208</v>
+        <v>73368</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05347754609065505</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03872281509860034</v>
+        <v>0.03784762587806974</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07501355511806695</v>
+        <v>0.07517756118141591</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>47</v>
@@ -1839,19 +1839,19 @@
         <v>41147</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30073</v>
+        <v>30850</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56173</v>
+        <v>57630</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04535244901000655</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03314668753586523</v>
+        <v>0.03400330181734595</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06191397133340694</v>
+        <v>0.06351965615206473</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>90</v>
@@ -1860,19 +1860,19 @@
         <v>93338</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>72858</v>
+        <v>72248</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>117606</v>
+        <v>118495</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04956309244488921</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03868834989705809</v>
+        <v>0.03836448778030675</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06244992759508624</v>
+        <v>0.06292187260071756</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>183716</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>157459</v>
+        <v>157537</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>211166</v>
+        <v>212408</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1882475446626448</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1613423026979934</v>
+        <v>0.1614230199403905</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2163742305686574</v>
+        <v>0.2176474030588849</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>163</v>
@@ -1910,19 +1910,19 @@
         <v>126600</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>107654</v>
+        <v>107032</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>148245</v>
+        <v>147907</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1395380564092091</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1186563918786451</v>
+        <v>0.1179700548905722</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1633947112837845</v>
+        <v>0.1630227032334742</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>337</v>
@@ -1931,19 +1931,19 @@
         <v>310316</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>277735</v>
+        <v>281376</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>345364</v>
+        <v>350129</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1647806208850607</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1474797478534752</v>
+        <v>0.1494130643527657</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1833914507318986</v>
+        <v>0.1859215250006386</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>378184</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>345174</v>
+        <v>345975</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>413507</v>
+        <v>411055</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.387512110006437</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3536880362739954</v>
+        <v>0.3545079849837952</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4237064551311247</v>
+        <v>0.4211932203969571</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>618</v>
@@ -1981,19 +1981,19 @@
         <v>392612</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>363984</v>
+        <v>364037</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>419787</v>
+        <v>417789</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4327358017526516</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4011824937576058</v>
+        <v>0.40124067953456</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4626880684957579</v>
+        <v>0.4604855396909724</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1022</v>
@@ -2002,19 +2002,19 @@
         <v>770796</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>730345</v>
+        <v>728749</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>813890</v>
+        <v>810117</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4092996706071074</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3878198286124376</v>
+        <v>0.3869723741369546</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4321829036030859</v>
+        <v>0.4301791759431302</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>361838</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>330634</v>
+        <v>327803</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>398308</v>
+        <v>394949</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3707627992402631</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3387885321591712</v>
+        <v>0.3358880325000571</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4081316508849409</v>
+        <v>0.404690118849751</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>490</v>
@@ -2052,19 +2052,19 @@
         <v>346920</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>320929</v>
+        <v>323185</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>374653</v>
+        <v>375356</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3823736928281327</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3537272567777125</v>
+        <v>0.3562134831392366</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4129414220638517</v>
+        <v>0.4137157924397258</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>816</v>
@@ -2073,19 +2073,19 @@
         <v>708758</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>665171</v>
+        <v>664379</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>750726</v>
+        <v>750978</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3763566160629426</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3532115657937783</v>
+        <v>0.3527912711972607</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3986421080522502</v>
+        <v>0.3987757649240246</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>195968</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>168082</v>
+        <v>165680</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>230044</v>
+        <v>227480</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.05633220228296295</v>
+        <v>0.05633220228296294</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04831619897146797</v>
+        <v>0.0476257998793883</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06612769522939586</v>
+        <v>0.06539040415122303</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>195</v>
@@ -2198,19 +2198,19 @@
         <v>154899</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>129917</v>
+        <v>134148</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>179884</v>
+        <v>181769</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04196430141792094</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0351964696638903</v>
+        <v>0.03634268442535522</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04873319055322065</v>
+        <v>0.04924396027197982</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>364</v>
@@ -2219,19 +2219,19 @@
         <v>350866</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>317073</v>
+        <v>316823</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>398893</v>
+        <v>396152</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04893543183071314</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04422225240634099</v>
+        <v>0.04418743749802152</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05563371750229153</v>
+        <v>0.05525147694113999</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>804592</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>749402</v>
+        <v>748890</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>865321</v>
+        <v>855143</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2312850043508135</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2154202021423587</v>
+        <v>0.2152731611207703</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2487418805268085</v>
+        <v>0.2458161711932096</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>999</v>
@@ -2269,19 +2269,19 @@
         <v>709587</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>666860</v>
+        <v>667070</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>756242</v>
+        <v>752045</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1922377386461754</v>
+        <v>0.1922377386461755</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1806622558113036</v>
+        <v>0.1807191237956568</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2048772996686142</v>
+        <v>0.2037401360286462</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1767</v>
@@ -2290,19 +2290,19 @@
         <v>1514180</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1442939</v>
+        <v>1448590</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1584211</v>
+        <v>1592124</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2111829961369386</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2012469935215841</v>
+        <v>0.2020352435488011</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2209503093632765</v>
+        <v>0.2220539525309831</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>1691114</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1626756</v>
+        <v>1630895</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1756725</v>
+        <v>1758198</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4861211385069314</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4676212129315598</v>
+        <v>0.4688107360057807</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5049815111826784</v>
+        <v>0.5054047870060543</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2888</v>
@@ -2340,19 +2340,19 @@
         <v>1967492</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1913994</v>
+        <v>1915351</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2024157</v>
+        <v>2025428</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.533022697028549</v>
+        <v>0.5330226970285491</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5185293757719482</v>
+        <v>0.5188968646351939</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5483742535938966</v>
+        <v>0.548718523033033</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4590</v>
@@ -2361,19 +2361,19 @@
         <v>3658606</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3578366</v>
+        <v>3566210</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3752575</v>
+        <v>3744651</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.510266632375228</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4990755515615176</v>
+        <v>0.4973801291096596</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5233725022178869</v>
+        <v>0.5222673539631577</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>787117</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>733010</v>
+        <v>731807</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>842566</v>
+        <v>842423</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2262616548592921</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2107082220131239</v>
+        <v>0.2103623718986707</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2422009034291683</v>
+        <v>0.2421596542159636</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1215</v>
@@ -2411,19 +2411,19 @@
         <v>859219</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>813073</v>
+        <v>811922</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>904955</v>
+        <v>904146</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2327752629073547</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2202735586765785</v>
+        <v>0.219961595665357</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2451656030012733</v>
+        <v>0.2449465472639683</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1914</v>
@@ -2432,19 +2432,19 @@
         <v>1646336</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1574266</v>
+        <v>1573154</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1722234</v>
+        <v>1722012</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2296149396571202</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2195632724499368</v>
+        <v>0.219408178662444</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2402004136707142</v>
+        <v>0.2401694522212407</v>
       </c>
     </row>
     <row r="28">
